--- a/data/trans_orig/P39B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Estudios-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,54%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>20,74%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>30,21%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>23,62%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>28,89%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,79%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>28,03%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>40,62%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,24%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,93%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>27,51%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>38,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>35,05%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>18,79%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>22,19%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,24%</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,66%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>37,89%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,58%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>21,12%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P39B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Estudios-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,49%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>20,73%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>30,23%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>23,59%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>28,75%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,77%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>30,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>27,94%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>33,09%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>47,79%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>41,87%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>16,04%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>19,3%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,79%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>27,18%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>34,82%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>18,63%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>22,15%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>25,66%</t>
+          <t>25,61%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>36,58%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>17,61%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>21,2%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P39B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Estudios-trans_orig.xlsx
@@ -682,11 +682,11 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>34493</v>
+        <v>32954</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -696,49 +696,49 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>48</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>31128</v>
+        <v>28668</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>87</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>65621</v>
+        <v>61622</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -753,53 +753,53 @@
         <v>116</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>96822</v>
+        <v>92191</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>230</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>139512</v>
+        <v>126988</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
         <v>346</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>236334</v>
+        <v>219179</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>20,84%</t>
         </is>
       </c>
     </row>
@@ -824,63 +824,63 @@
         <v>158</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>119893</v>
+        <v>113560</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>24,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>28,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
         <v>398</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>229172</v>
+        <v>206593</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
         <v>556</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>349065</v>
+        <v>320153</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>29,92%</t>
         </is>
       </c>
     </row>
@@ -895,63 +895,63 @@
         <v>142</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>106895</v>
+        <v>100715</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
         <v>296</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>163161</v>
+        <v>146473</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
         <v>438</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>270056</v>
+        <v>247187</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>23,37%</t>
         </is>
       </c>
     </row>
@@ -966,63 +966,63 @@
         <v>164</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>119128</v>
+        <v>115783</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
         <v>368</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>212654</v>
+        <v>194253</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
         <v>532</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>331783</v>
+        <v>310036</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>28,96%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
         <v>619</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>477231</v>
+        <v>455204</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>1340</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>775627</v>
+        <v>702974</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>1959</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1252858</v>
+        <v>1158178</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1112,63 +1112,63 @@
         <v>138</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>148222</v>
+        <v>147122</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>197</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>153951</v>
+        <v>142379</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>335</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>302173</v>
+        <v>289501</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,61%</t>
         </is>
       </c>
     </row>
@@ -1183,63 +1183,63 @@
         <v>425</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>449544</v>
+        <v>442573</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
         <v>641</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>462903</v>
+        <v>428826</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>1066</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>912447</v>
+        <v>871399</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>27,64%</t>
         </is>
       </c>
     </row>
@@ -1254,63 +1254,63 @@
         <v>508</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>493286</v>
+        <v>477267</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
         <v>760</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>637251</v>
+        <v>712998</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>58,83%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
         <v>1268</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1130538</v>
+        <v>1190265</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>50,11%</t>
         </is>
       </c>
     </row>
@@ -1325,63 +1325,63 @@
         <v>288</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>259258</v>
+        <v>249136</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>404</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>255602</v>
+        <v>236074</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
         <v>692</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>514860</v>
+        <v>485211</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>15,57%</t>
         </is>
       </c>
     </row>
@@ -1396,63 +1396,63 @@
         <v>292</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>264924</v>
+        <v>259921</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
         <v>553</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>358735</v>
+        <v>336125</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>845</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>623659</v>
+        <v>596045</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,01%</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
         <v>1651</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1615234</v>
+        <v>1576019</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>2555</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>1868442</v>
+        <v>1856402</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>4206</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3483676</v>
+        <v>3432421</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1542,49 +1542,49 @@
         <v>33</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>33479</v>
+        <v>32948</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
         <v>50</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>42114</v>
+        <v>38356</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
         <v>83</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>75593</v>
+        <v>71304</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,81%</t>
         </is>
       </c>
     </row>
@@ -1613,63 +1613,63 @@
         <v>141</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>145810</v>
+        <v>139967</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
         <v>210</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>149201</v>
+        <v>138464</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
         <v>351</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>295011</v>
+        <v>278431</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>27,16%</t>
         </is>
       </c>
     </row>
@@ -1684,63 +1684,63 @@
         <v>195</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>187541</v>
+        <v>178444</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>37,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
         <v>295</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>195832</v>
+        <v>182394</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
         <v>490</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>383373</v>
+        <v>360839</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>32,17%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>34,57%</t>
         </is>
       </c>
     </row>
@@ -1755,63 +1755,63 @@
         <v>103</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>92093</v>
+        <v>86986</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
         <v>163</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>105376</v>
+        <v>96695</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
         <v>266</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>197469</v>
+        <v>183680</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>18,42%</t>
         </is>
       </c>
     </row>
@@ -1826,63 +1826,63 @@
         <v>116</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>98011</v>
+        <v>96112</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
         <v>202</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>138910</v>
+        <v>131145</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>25,49%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
         <v>318</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>236921</v>
+        <v>227257</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>22,53%</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
         <v>588</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>556934</v>
+        <v>534456</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>920</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>631433</v>
+        <v>587054</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>1508</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1188367</v>
+        <v>1121511</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1972,63 +1972,63 @@
         <v>210</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>216195</v>
+        <v>213024</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
         <v>295</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>227192</v>
+        <v>209403</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
         <v>505</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>443387</v>
+        <v>422427</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -2043,63 +2043,63 @@
         <v>682</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>692176</v>
+        <v>674731</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
         <v>1081</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>751616</v>
+        <v>694278</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
         <v>1763</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1443792</v>
+        <v>1369009</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,45%</t>
         </is>
       </c>
     </row>
@@ -2114,63 +2114,63 @@
         <v>861</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>800720</v>
+        <v>769271</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
         <v>1453</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>1062255</v>
+        <v>1101985</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>35,02%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>51,98%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
         <v>2314</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1862975</v>
+        <v>1871256</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>43,81%</t>
         </is>
       </c>
     </row>
@@ -2185,63 +2185,63 @@
         <v>533</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>458245</v>
+        <v>436837</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
         <v>863</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>524139</v>
+        <v>479242</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
         <v>1396</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>982384</v>
+        <v>916078</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,22%</t>
         </is>
       </c>
     </row>
@@ -2256,63 +2256,63 @@
         <v>572</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>482063</v>
+        <v>471816</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
         <v>1123</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>710300</v>
+        <v>661523</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
         <v>1695</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1192363</v>
+        <v>1133339</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>21,01%</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>2858</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2649399</v>
+        <v>2565679</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>4815</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>3275502</v>
+        <v>3146431</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>7673</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5924900</v>
+        <v>5712110</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P39B_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Estudios-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+          <t>Población según lo que piensan que es lo mejor que se puede hacer cuando creen que a alguien le está dando un ataque al corazón en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>32954</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8761</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>4151</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>16160</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>28668</v>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>10634</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>61622</v>
+          <t>6664</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17241</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>19394</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>13390</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>28334</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>92191</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9346</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>5015</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>17182</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>230</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>126988</v>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>12847</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>346</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>219179</v>
+          <t>8460</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18531</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>22193</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>15492</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>30880</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -817,70 +949,112 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>113560</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>404385</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>388924</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>416686</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>398</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>206593</v>
+          <t>84,64%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>81,41%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>87,22%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>613131</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>556</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>320153</v>
+          <t>599041</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>624617</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>87,95%</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>89,6%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1017516</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>999025</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1034086</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>86,61%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>85,03%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>88,02%</t>
         </is>
       </c>
     </row>
@@ -888,70 +1062,112 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>142</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>100715</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41062</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>31866</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>53184</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>296</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>146473</v>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>45719</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>438</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>247187</v>
+          <t>36805</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>55466</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>86780</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>73765</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>101930</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -959,70 +1175,112 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>164</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>115783</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14197</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>8963</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>22432</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>368</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>194253</v>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,63%</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>14770</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>532</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>310036</v>
+          <t>9931</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21096</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>28967</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>21474</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>38887</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -1033,20 +1291,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>619</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>455204</v>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>477751</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>477751</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>477751</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1054,32 +1316,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>1340</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>702974</v>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>697100</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>1959</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>1158178</v>
+          <t>697100</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>697100</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1092,6 +1362,36 @@
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1174851</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1174851</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1174851</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1105,70 +1405,112 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>147122</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11384</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>19901</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>197</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>142379</v>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>15035</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>335</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>289501</v>
+          <t>8810</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22137</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>26419</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>17776</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>37445</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
@@ -1176,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>425</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>442573</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18141</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>8550</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>33085</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>641</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>428826</v>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>14648</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>1066</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>871399</v>
+          <t>8975</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>23628</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>32789</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>21266</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>49693</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
         </is>
       </c>
     </row>
@@ -1247,70 +1631,112 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>508</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>477267</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2152370</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>2125121</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>2187795</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>760</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>712998</v>
+          <t>95,22%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>94,01%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>96,78%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>2746</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>2127110</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>58,83%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>1268</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>1190265</v>
+          <t>2108046</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2153261</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>96,26%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>34,68%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>50,11%</t>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4279479</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>4244521</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>4320259</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>95,73%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>94,95%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>96,65%</t>
         </is>
       </c>
     </row>
@@ -1318,70 +1744,112 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>288</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>249136</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>51536</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>33924</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>70739</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>404</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>236074</v>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>42748</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>692</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>485211</v>
+          <t>29341</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>59241</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>94284</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>72258</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>117151</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -1389,70 +1857,112 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>292</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>259921</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27040</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>16135</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>42557</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>553</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>336125</v>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>10191</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>845</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>596045</v>
+          <t>5659</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17960</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>37232</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>24956</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>52582</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -1463,20 +1973,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>1651</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>1576019</v>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2260471</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2260471</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2260471</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1484,32 +1998,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>2555</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1856402</v>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2209732</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>4206</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>3432421</v>
+          <t>2209732</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2209732</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1522,6 +2044,36 @@
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>4847</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>4470203</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>4470203</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>4470203</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1535,70 +2087,112 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>32948</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8320</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>16247</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>38356</v>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>5916</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>71304</v>
+          <t>2771</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10816</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>14236</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>8222</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>22725</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
         </is>
       </c>
     </row>
@@ -1606,70 +2200,112 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>141</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>139967</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2745</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>167</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>9230</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>138464</v>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>351</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>278431</v>
+          <t>2076</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>8427</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>16583</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -1677,70 +2313,112 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>195</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>178444</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>619633</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>607610</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>627247</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>182394</v>
+          <t>96,37%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>94,5%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>97,56%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>965</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>635612</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>490</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>360839</v>
+          <t>624792</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>642551</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>96,9%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>1616</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1255245</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>1240032</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1266999</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>96,64%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>95,47%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>97,54%</t>
         </is>
       </c>
     </row>
@@ -1748,70 +2426,112 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>86986</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7342</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>2922</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>15835</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>163</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>96695</v>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>266</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>183680</v>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5149</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>9448</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>5104</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>19880</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
         </is>
       </c>
     </row>
@@ -1819,70 +2539,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>96112</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4926</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>2276</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>10834</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>202</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>131145</v>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>6636</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>318</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>227257</v>
+          <t>3021</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>17714</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>11562</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>5986</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>20984</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1893,20 +2655,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>588</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>534456</v>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>642966</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>642966</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>642966</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1914,32 +2680,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>920</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>587054</v>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>995</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>655951</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>1508</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>1121511</v>
+          <t>655951</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>655951</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1952,6 +2726,36 @@
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1672</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1298917</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1298917</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1298917</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1965,70 +2769,112 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>213024</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>28465</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>18750</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>41123</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>209403</v>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>31584</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>505</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>422427</v>
+          <t>21828</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>41317</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>60049</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>45776</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>74743</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -2036,70 +2882,112 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>682</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>674731</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>30232</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>19154</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>46466</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>1081</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>694278</v>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>33177</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>1763</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>1369009</v>
+          <t>24229</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>43809</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>63409</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>49517</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>83480</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +2995,112 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>861</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>769271</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3020</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3176389</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>3142167</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>3221617</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>1453</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>1101985</v>
+          <t>93,94%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>92,93%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>95,28%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>4845</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>3375852</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>2314</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>1871256</v>
+          <t>3349306</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3413407</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>94,75%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>43,81%</t>
+          <t>7865</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>6552240</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>6509758</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>6613026</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>94,36%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>93,75%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>95,23%</t>
         </is>
       </c>
     </row>
@@ -2178,70 +3108,112 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>533</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>436837</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>99940</t>
+        </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>75276</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>122274</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>863</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>479242</v>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>90573</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>1396</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>916078</v>
+          <t>69439</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>107908</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>190513</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>160185</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>221416</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
         </is>
       </c>
     </row>
@@ -2249,70 +3221,112 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>572</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>471816</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>46164</t>
+        </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>32628</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>62068</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>1123</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>661523</v>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1,84%</t>
+        </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>31597</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>1695</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>1133339</v>
+          <t>21266</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>43354</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>77760</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>60634</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>98258</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -2323,20 +3337,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>2858</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>2565679</v>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3275</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3381189</t>
+        </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3381189</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3381189</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -2344,32 +3362,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>4815</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>3146431</v>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5180</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3562783</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>7673</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>5712110</v>
+          <t>3562783</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3562783</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
@@ -2382,6 +3408,36 @@
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>8455</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>6943971</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>6943971</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>6943971</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2396,14 +3452,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A16:A21"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
